--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200318.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200318.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888AC2C8-3F65-4BF9-AFCB-AEE66313801E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EB48B8-3614-4CA8-A88F-907DB6040FB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10995" yWindow="2625" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="2910" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -167,8 +167,7 @@
     <t>2020/3/18 9:00</t>
   </si>
   <si>
-    <t>http://wjw.hubei.gov.cn/fbjd/dtyw/202003/t20200319_2185058.shtml
- 2020年3月18日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入性病例。
+    <t>2020年3月18日0—24时，全省新增新冠肺炎确诊病例0例，无境外输入性病例。
  全省新增病亡8例，其中：武汉市6例，襄阳市1例，鄂州市1例，其他14个市州均为0例。
  全省新增出院795例，其中：武汉市733例、孝感市24例、十堰市10例、鄂州市8例、随州市4例，荆州市、黄冈市、仙桃市、潜江市均为3例，黄石市、宜昌市、荆门市、天门市均为1例，襄阳市、咸宁市、恩施州、神农架林区均为0例。
  截至2020年3月18日24时，全省累计报告新冠肺炎确诊病例67800例，其中：武汉市50005例、孝感市3518例、黄冈市2907例、荆州市1580例、鄂州市1394例、随州市1307例、襄阳市1175例、黄石市1015例、宜昌市931例、荆门市928例、咸宁市836例、十堰市672例、仙桃市575例、天门市496例、恩施州252例、潜江市198例、神农架林区11例。
@@ -177,11 +176,10 @@
  目前仍在院治疗6636例，其中：重症1809例、危重症465例，均在定点医疗机构接受隔离治疗。现有疑似病例数为0，当日新增数为0，当日排除0人，集中隔离人数为0。累计追踪密切接触者275883人，尚在接受医学观察3463人。</t>
   </si>
   <si>
-    <t xml:space="preserve">http://wjw.hubei.gov.cn/fbjd/dtyw/202003/t20200319_2185058.shtml
-</t>
-  </si>
-  <si>
-    <t>2020/03/19 10:24</t>
+    <t>http://wjw.hubei.gov.cn/fbjd/dtyw/index.shtml</t>
+  </si>
+  <si>
+    <t>2020/03/19 11:38</t>
   </si>
   <si>
     <t>手动</t>
@@ -599,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -885,6 +883,9 @@
       <c r="G4" t="s">
         <v>56</v>
       </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
       <c r="M4">
         <v>2907</v>
       </c>
@@ -1018,6 +1019,9 @@
       <c r="G6" t="s">
         <v>58</v>
       </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
       <c r="M6">
         <v>1580</v>
       </c>
@@ -1151,6 +1155,9 @@
       <c r="G8" t="s">
         <v>60</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
       <c r="M8">
         <v>1015</v>
       </c>
@@ -1216,6 +1223,9 @@
       <c r="G9" t="s">
         <v>61</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
       <c r="M9">
         <v>931</v>
       </c>
@@ -1281,6 +1291,9 @@
       <c r="G10" t="s">
         <v>62</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
       <c r="M10">
         <v>928</v>
       </c>
@@ -1550,6 +1563,9 @@
       <c r="G14" t="s">
         <v>66</v>
       </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
       <c r="M14">
         <v>575</v>
       </c>
@@ -1615,6 +1631,9 @@
       <c r="G15" t="s">
         <v>67</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
       <c r="M15">
         <v>496</v>
       </c>
@@ -1745,6 +1764,9 @@
       <c r="G17" t="s">
         <v>69</v>
       </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
       <c r="M17">
         <v>198</v>
       </c>
@@ -1981,8 +2003,14 @@
       <c r="F21" t="s">
         <v>44</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
       <c r="K21">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -2042,6 +2070,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>
 
